--- a/medicine/Enfance/Le_Dragon_qui_éternuait/Le_Dragon_qui_éternuait.xlsx
+++ b/medicine/Enfance/Le_Dragon_qui_éternuait/Le_Dragon_qui_éternuait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Dragon_qui_%C3%A9ternuait</t>
+          <t>Le_Dragon_qui_éternuait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Dragon qui éternuait (titre original : The Mystery of the Coughing Dragon) est un roman de Robert Arthur et de Nick West (en), paru en 1970 chez Random House aux États-Unis, faisant partie de la série policière pour adolescents Les Trois Jeunes Détectives.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Dragon_qui_%C3%A9ternuait</t>
+          <t>Le_Dragon_qui_éternuait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les trois jeunes détectives » (Hannibal, Peter et Bob) sont amenés à enquêter de la manière la plus inattendue qui soit : quelqu'un a dérobé à un ami d'Alfred Hitchcock son chien, un setter irlandais. Hitchcock propose aux trois détectives de rechercher le voleur et le chien. Or Hannibal, qui suit l'actualité locale, a appris qu'on avait récemment enlevé, non pas un, mais cinq chiens dans le voisinage. Qui s'amuse à voler des chiens ? Et pourquoi ?
 Les trois jeunes gens rencontrent donc M. Allen, dont le chien a été volé. Au fil de la discussion, l'homme leur révèle qu'il a vu, non loin de chez lui, dans la baie, « un dragon » qui se déplaçait dans la mer ! Et étrangement, ce dragon semblait « éternuer » !
